--- a/dealer-1/src/qiansh/CAF Fields.xlsx
+++ b/dealer-1/src/qiansh/CAF Fields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" activeTab="1"/>
+    <workbookView xWindow="1120" yWindow="480" windowWidth="24480" windowHeight="13820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAF Fields" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="341">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1076,25 +1076,20 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Z0001</t>
+    <t>Z0003</t>
+  </si>
+  <si>
+    <t>Z0004</t>
+  </si>
+  <si>
+    <t>LTE-Data</t>
+  </si>
+  <si>
+    <t>SERVICETYPE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Z0002</t>
-  </si>
-  <si>
-    <t>Z0003</t>
-  </si>
-  <si>
-    <t>LTE-Voice</t>
-  </si>
-  <si>
-    <t>Z0004</t>
-  </si>
-  <si>
-    <t>LTE-Data</t>
-  </si>
-  <si>
-    <t>LTE-Residential</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1102,7 +1097,15 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>LTE-Voice</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>SERVICETYPE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1325,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1412,36 +1415,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1466,7 +1439,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1521,8 +1494,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1824,14 +1803,8 @@
     <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="60">
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1859,6 +1832,9 @@
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -1885,6 +1861,9 @@
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3996,10 +3975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D103"/>
+  <dimension ref="B1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4022,7 +4001,7 @@
     </row>
     <row r="2" spans="2:4">
       <c r="B2" s="10" t="s">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>99</v>
@@ -5087,7 +5066,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="15" thickBot="1">
+    <row r="99" spans="2:4">
       <c r="B99" t="s">
         <v>321</v>
       </c>
@@ -5100,46 +5079,35 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C100" s="124" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D100" s="123" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>340</v>
-      </c>
-      <c r="C101" s="126" t="s">
-        <v>339</v>
-      </c>
-      <c r="D101" s="125" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="C101" s="124" t="s">
+        <v>338</v>
+      </c>
+      <c r="D101" s="123" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>340</v>
-      </c>
-      <c r="C102" s="126" t="s">
-        <v>335</v>
-      </c>
-      <c r="D102" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" s="124" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" t="s">
-        <v>340</v>
-      </c>
-      <c r="C103" s="126" t="s">
-        <v>337</v>
-      </c>
-      <c r="D103" s="125" t="s">
-        <v>336</v>
+      <c r="D102" s="123" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/dealer-1/src/qiansh/CAF Fields.xlsx
+++ b/dealer-1/src/qiansh/CAF Fields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="15240" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAF Fields" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="356">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1168,13 +1168,35 @@
   </si>
   <si>
     <t>1003</t>
+  </si>
+  <si>
+    <t>CRM Call Center</t>
+  </si>
+  <si>
+    <t>RJIL Owned POS</t>
+  </si>
+  <si>
+    <t>Self-Care</t>
+  </si>
+  <si>
+    <t>RJIL Stores (Company Owned, Company Operated)</t>
+  </si>
+  <si>
+    <t>Dealers</t>
+  </si>
+  <si>
+    <t>Retail (franchisee, not owned by RR)</t>
+  </si>
+  <si>
+    <t>ChannelCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1321,8 +1343,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1401,8 +1435,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1525,6 +1565,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1592,7 +1703,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1898,6 +2009,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -4074,10 +4210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D102"/>
+  <dimension ref="B1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5198,7 +5334,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" ht="15" thickBot="1">
       <c r="B102" t="s">
         <v>337</v>
       </c>
@@ -5207,6 +5343,72 @@
       </c>
       <c r="D102" s="123" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="16" thickBot="1">
+      <c r="B103" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" s="133" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="16" thickBot="1">
+      <c r="B104" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="C104" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104" s="130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="16" thickBot="1">
+      <c r="B105" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="C105" s="135" t="s">
+        <v>351</v>
+      </c>
+      <c r="D105" s="130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="16" thickBot="1">
+      <c r="B106" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="134" t="s">
+        <v>352</v>
+      </c>
+      <c r="D106" s="130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="16" thickBot="1">
+      <c r="B107" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107" s="134" t="s">
+        <v>353</v>
+      </c>
+      <c r="D107" s="131">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="16" thickBot="1">
+      <c r="B108" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108" s="136" t="s">
+        <v>354</v>
+      </c>
+      <c r="D108" s="132">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/dealer-1/src/qiansh/CAF Fields.xlsx
+++ b/dealer-1/src/qiansh/CAF Fields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13660" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="480" windowWidth="25040" windowHeight="13700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAF Fields" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="592">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -911,9 +911,6 @@
     <t>Father/Husb.</t>
   </si>
   <si>
-    <t>Mother</t>
-  </si>
-  <si>
     <t>Guardian</t>
   </si>
   <si>
@@ -932,13 +929,7 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mrs. </t>
-  </si>
-  <si>
-    <t>1003</t>
   </si>
   <si>
     <t>CRM Call Center</t>
@@ -1879,6 +1870,24 @@
   </si>
   <si>
     <t>ChannelCode</t>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salutation</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z0005</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>Z0021</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2340,9 +2349,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2777,7 +2808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="86">
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -2810,6 +2841,17 @@
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -2841,6 +2883,17 @@
     <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -4954,8 +5007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4979,7 +5032,7 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="122" t="s">
-        <v>92</v>
+        <v>587</v>
       </c>
       <c r="C2" s="123" t="s">
         <v>94</v>
@@ -5081,7 +5134,7 @@
         <v>115</v>
       </c>
       <c r="D10" s="126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" s="121"/>
     </row>
@@ -5093,7 +5146,7 @@
         <v>116</v>
       </c>
       <c r="D11" s="126" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E11" s="121"/>
     </row>
@@ -5105,7 +5158,7 @@
         <v>117</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E12" s="121"/>
     </row>
@@ -5114,10 +5167,10 @@
         <v>118</v>
       </c>
       <c r="C13" s="128" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E13" s="121"/>
     </row>
@@ -5126,10 +5179,10 @@
         <v>118</v>
       </c>
       <c r="C14" s="128" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D14" s="126" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E14" s="121"/>
     </row>
@@ -5138,10 +5191,10 @@
         <v>118</v>
       </c>
       <c r="C15" s="128" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D15" s="126" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E15" s="121"/>
     </row>
@@ -5150,10 +5203,10 @@
         <v>118</v>
       </c>
       <c r="C16" s="128" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D16" s="126" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E16" s="121"/>
     </row>
@@ -5162,10 +5215,10 @@
         <v>118</v>
       </c>
       <c r="C17" s="128" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E17" s="121"/>
     </row>
@@ -5174,10 +5227,10 @@
         <v>118</v>
       </c>
       <c r="C18" s="128" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D18" s="126" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E18" s="121"/>
     </row>
@@ -5186,10 +5239,10 @@
         <v>118</v>
       </c>
       <c r="C19" s="128" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E19" s="121"/>
     </row>
@@ -5198,10 +5251,10 @@
         <v>118</v>
       </c>
       <c r="C20" s="128" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E20" s="121"/>
     </row>
@@ -5210,10 +5263,10 @@
         <v>118</v>
       </c>
       <c r="C21" s="128" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D21" s="126" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E21" s="121"/>
     </row>
@@ -5222,10 +5275,10 @@
         <v>118</v>
       </c>
       <c r="C22" s="128" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D22" s="126" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E22" s="121"/>
     </row>
@@ -5234,10 +5287,10 @@
         <v>118</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D23" s="126" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E23" s="121"/>
     </row>
@@ -5246,10 +5299,10 @@
         <v>118</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D24" s="126" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E24" s="121"/>
     </row>
@@ -5258,10 +5311,10 @@
         <v>118</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E25" s="121"/>
     </row>
@@ -5270,10 +5323,10 @@
         <v>118</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D26" s="126" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E26" s="121"/>
     </row>
@@ -5282,10 +5335,10 @@
         <v>118</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E27" s="121"/>
     </row>
@@ -5294,10 +5347,10 @@
         <v>118</v>
       </c>
       <c r="C28" s="128" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E28" s="121"/>
     </row>
@@ -5306,10 +5359,10 @@
         <v>118</v>
       </c>
       <c r="C29" s="128" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D29" s="126" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E29" s="121"/>
     </row>
@@ -5318,10 +5371,10 @@
         <v>118</v>
       </c>
       <c r="C30" s="128" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D30" s="126" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E30" s="121"/>
     </row>
@@ -5330,10 +5383,10 @@
         <v>118</v>
       </c>
       <c r="C31" s="129" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D31" s="126" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E31" s="121"/>
     </row>
@@ -5342,10 +5395,10 @@
         <v>118</v>
       </c>
       <c r="C32" s="128" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D32" s="126" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E32" s="121"/>
     </row>
@@ -5354,10 +5407,10 @@
         <v>118</v>
       </c>
       <c r="C33" s="129" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D33" s="126" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E33" s="121"/>
     </row>
@@ -5366,10 +5419,10 @@
         <v>118</v>
       </c>
       <c r="C34" s="129" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D34" s="126" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E34" s="121"/>
     </row>
@@ -5378,10 +5431,10 @@
         <v>118</v>
       </c>
       <c r="C35" s="129" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D35" s="126" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E35" s="121"/>
     </row>
@@ -5390,10 +5443,10 @@
         <v>118</v>
       </c>
       <c r="C36" s="129" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D36" s="126" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E36" s="121"/>
     </row>
@@ -5402,10 +5455,10 @@
         <v>118</v>
       </c>
       <c r="C37" s="129" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D37" s="126" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E37" s="121"/>
     </row>
@@ -5414,10 +5467,10 @@
         <v>118</v>
       </c>
       <c r="C38" s="128" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D38" s="126" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E38" s="121"/>
     </row>
@@ -5426,10 +5479,10 @@
         <v>118</v>
       </c>
       <c r="C39" s="129" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D39" s="126" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E39" s="121"/>
     </row>
@@ -5438,10 +5491,10 @@
         <v>118</v>
       </c>
       <c r="C40" s="129" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D40" s="126" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E40" s="121"/>
     </row>
@@ -5462,7 +5515,7 @@
         <v>118</v>
       </c>
       <c r="C42" s="128" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D42" s="126" t="s">
         <v>120</v>
@@ -5489,7 +5542,7 @@
         <v>152</v>
       </c>
       <c r="D44" s="126" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E44" s="121"/>
     </row>
@@ -5498,7 +5551,7 @@
         <v>118</v>
       </c>
       <c r="C45" s="128" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D45" s="126" t="s">
         <v>125</v>
@@ -5510,7 +5563,7 @@
         <v>118</v>
       </c>
       <c r="C46" s="129" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D46" s="126" t="s">
         <v>126</v>
@@ -5522,7 +5575,7 @@
         <v>118</v>
       </c>
       <c r="C47" s="128" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D47" s="126" t="s">
         <v>127</v>
@@ -5534,10 +5587,10 @@
         <v>118</v>
       </c>
       <c r="C48" s="128" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D48" s="126" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E48" s="121"/>
     </row>
@@ -5546,7 +5599,7 @@
         <v>118</v>
       </c>
       <c r="C49" s="128" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D49" s="126" t="s">
         <v>128</v>
@@ -5558,7 +5611,7 @@
         <v>118</v>
       </c>
       <c r="C50" s="128" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D50" s="126" t="s">
         <v>129</v>
@@ -5570,10 +5623,10 @@
         <v>118</v>
       </c>
       <c r="C51" s="129" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D51" s="126" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E51" s="121"/>
     </row>
@@ -5582,7 +5635,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="128" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D52" s="126" t="s">
         <v>130</v>
@@ -5594,7 +5647,7 @@
         <v>118</v>
       </c>
       <c r="C53" s="128" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D53" s="126" t="s">
         <v>131</v>
@@ -5606,7 +5659,7 @@
         <v>118</v>
       </c>
       <c r="C54" s="128" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D54" s="126" t="s">
         <v>132</v>
@@ -5618,10 +5671,10 @@
         <v>118</v>
       </c>
       <c r="C55" s="129" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D55" s="126" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E55" s="121"/>
     </row>
@@ -5630,10 +5683,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="129" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D56" s="126" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E56" s="121"/>
     </row>
@@ -5642,10 +5695,10 @@
         <v>118</v>
       </c>
       <c r="C57" s="129" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D57" s="126" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E57" s="121"/>
     </row>
@@ -5654,10 +5707,10 @@
         <v>118</v>
       </c>
       <c r="C58" s="129" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D58" s="126" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E58" s="121"/>
     </row>
@@ -5666,7 +5719,7 @@
         <v>118</v>
       </c>
       <c r="C59" s="128" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D59" s="126" t="s">
         <v>133</v>
@@ -5678,7 +5731,7 @@
         <v>118</v>
       </c>
       <c r="C60" s="128" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D60" s="126" t="s">
         <v>134</v>
@@ -5690,7 +5743,7 @@
         <v>118</v>
       </c>
       <c r="C61" s="128" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D61" s="126" t="s">
         <v>135</v>
@@ -5702,7 +5755,7 @@
         <v>118</v>
       </c>
       <c r="C62" s="128" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D62" s="126" t="s">
         <v>136</v>
@@ -5714,7 +5767,7 @@
         <v>118</v>
       </c>
       <c r="C63" s="128" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D63" s="126" t="s">
         <v>137</v>
@@ -5726,7 +5779,7 @@
         <v>118</v>
       </c>
       <c r="C64" s="128" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D64" s="126" t="s">
         <v>138</v>
@@ -5750,7 +5803,7 @@
         <v>118</v>
       </c>
       <c r="C66" s="128" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D66" s="126" t="s">
         <v>141</v>
@@ -5762,7 +5815,7 @@
         <v>118</v>
       </c>
       <c r="C67" s="128" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D67" s="126" t="s">
         <v>142</v>
@@ -5774,7 +5827,7 @@
         <v>118</v>
       </c>
       <c r="C68" s="128" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D68" s="126" t="s">
         <v>143</v>
@@ -5786,7 +5839,7 @@
         <v>118</v>
       </c>
       <c r="C69" s="128" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D69" s="126" t="s">
         <v>144</v>
@@ -5798,7 +5851,7 @@
         <v>118</v>
       </c>
       <c r="C70" s="128" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D70" s="126" t="s">
         <v>145</v>
@@ -5810,7 +5863,7 @@
         <v>118</v>
       </c>
       <c r="C71" s="128" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D71" s="126" t="s">
         <v>146</v>
@@ -5822,7 +5875,7 @@
         <v>118</v>
       </c>
       <c r="C72" s="128" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D72" s="126" t="s">
         <v>147</v>
@@ -5834,7 +5887,7 @@
         <v>118</v>
       </c>
       <c r="C73" s="128" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D73" s="126" t="s">
         <v>148</v>
@@ -5846,7 +5899,7 @@
         <v>118</v>
       </c>
       <c r="C74" s="128" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D74" s="126" t="s">
         <v>149</v>
@@ -5858,7 +5911,7 @@
         <v>118</v>
       </c>
       <c r="C75" s="128" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D75" s="126" t="s">
         <v>150</v>
@@ -5870,7 +5923,7 @@
         <v>118</v>
       </c>
       <c r="C76" s="128" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D76" s="126" t="s">
         <v>151</v>
@@ -5882,7 +5935,7 @@
         <v>118</v>
       </c>
       <c r="C77" s="128" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D77" s="126" t="s">
         <v>153</v>
@@ -5894,7 +5947,7 @@
         <v>118</v>
       </c>
       <c r="C78" s="128" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D78" s="126" t="s">
         <v>154</v>
@@ -5906,7 +5959,7 @@
         <v>118</v>
       </c>
       <c r="C79" s="128" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D79" s="126" t="s">
         <v>155</v>
@@ -5918,7 +5971,7 @@
         <v>118</v>
       </c>
       <c r="C80" s="128" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D80" s="126" t="s">
         <v>156</v>
@@ -5930,7 +5983,7 @@
         <v>118</v>
       </c>
       <c r="C81" s="128" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D81" s="126" t="s">
         <v>157</v>
@@ -5942,7 +5995,7 @@
         <v>118</v>
       </c>
       <c r="C82" s="128" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D82" s="126" t="s">
         <v>158</v>
@@ -5954,7 +6007,7 @@
         <v>118</v>
       </c>
       <c r="C83" s="128" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D83" s="126" t="s">
         <v>159</v>
@@ -5966,7 +6019,7 @@
         <v>118</v>
       </c>
       <c r="C84" s="128" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D84" s="126" t="s">
         <v>160</v>
@@ -5978,7 +6031,7 @@
         <v>118</v>
       </c>
       <c r="C85" s="128" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D85" s="126" t="s">
         <v>161</v>
@@ -5990,7 +6043,7 @@
         <v>118</v>
       </c>
       <c r="C86" s="128" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D86" s="126" t="s">
         <v>162</v>
@@ -6002,7 +6055,7 @@
         <v>118</v>
       </c>
       <c r="C87" s="128" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D87" s="126" t="s">
         <v>163</v>
@@ -6014,7 +6067,7 @@
         <v>118</v>
       </c>
       <c r="C88" s="128" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D88" s="126" t="s">
         <v>164</v>
@@ -6089,7 +6142,7 @@
         <v>96</v>
       </c>
       <c r="D94" s="126" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E94" s="121"/>
     </row>
@@ -6101,7 +6154,7 @@
         <v>97</v>
       </c>
       <c r="D95" s="126" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E95" s="121"/>
     </row>
@@ -6110,10 +6163,10 @@
         <v>95</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D96" s="126" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E96" s="121"/>
     </row>
@@ -6122,10 +6175,10 @@
         <v>95</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D97" s="126" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E97" s="121"/>
     </row>
@@ -6134,10 +6187,10 @@
         <v>95</v>
       </c>
       <c r="C98" s="126" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D98" s="126" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E98" s="121"/>
     </row>
@@ -6146,10 +6199,10 @@
         <v>95</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D99" s="126" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E99" s="121"/>
     </row>
@@ -6158,10 +6211,10 @@
         <v>95</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D100" s="126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E100" s="121"/>
     </row>
@@ -6170,10 +6223,10 @@
         <v>95</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D101" s="126" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E101" s="121"/>
     </row>
@@ -6185,7 +6238,7 @@
         <v>176</v>
       </c>
       <c r="D102" s="126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E102" s="121"/>
     </row>
@@ -6197,7 +6250,7 @@
         <v>175</v>
       </c>
       <c r="D103" s="126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E103" s="121"/>
     </row>
@@ -6206,10 +6259,10 @@
         <v>171</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D104" s="126" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E104" s="121"/>
     </row>
@@ -6221,7 +6274,7 @@
         <v>172</v>
       </c>
       <c r="D105" s="126" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E105" s="121"/>
     </row>
@@ -6233,7 +6286,7 @@
         <v>174</v>
       </c>
       <c r="D106" s="126" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E106" s="121"/>
     </row>
@@ -6245,7 +6298,7 @@
         <v>173</v>
       </c>
       <c r="D107" s="126" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E107" s="121"/>
     </row>
@@ -6257,7 +6310,7 @@
         <v>269</v>
       </c>
       <c r="D108" s="126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E108" s="121"/>
     </row>
@@ -6275,19 +6328,19 @@
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="C110" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="131" t="s">
         <v>271</v>
-      </c>
-      <c r="D110" s="126" t="s">
-        <v>274</v>
       </c>
       <c r="E110" s="121"/>
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="127" t="s">
-        <v>86</v>
+        <v>588</v>
       </c>
       <c r="C111" s="123" t="s">
         <v>275</v>
@@ -6305,31 +6358,31 @@
         <v>276</v>
       </c>
       <c r="D112" s="131" t="s">
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="E112" s="121"/>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" s="123" t="s">
-        <v>277</v>
-      </c>
-      <c r="D113" s="131" t="s">
-        <v>279</v>
+        <v>109</v>
+      </c>
+      <c r="C113" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="130" t="s">
+        <v>113</v>
       </c>
       <c r="E113" s="121"/>
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="C114" s="123" t="s">
-        <v>278</v>
-      </c>
-      <c r="D114" s="131" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+      <c r="C114" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="D114" s="130" t="s">
+        <v>111</v>
       </c>
       <c r="E114" s="121"/>
     </row>
@@ -6338,34 +6391,34 @@
         <v>109</v>
       </c>
       <c r="C115" s="130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D115" s="130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E115" s="121"/>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="C116" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="D116" s="130" t="s">
-        <v>111</v>
+        <v>177</v>
+      </c>
+      <c r="C116" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="D116" s="126" t="s">
+        <v>180</v>
       </c>
       <c r="E116" s="121"/>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="C117" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" s="130" t="s">
-        <v>112</v>
+        <v>177</v>
+      </c>
+      <c r="C117" s="126" t="s">
+        <v>409</v>
+      </c>
+      <c r="D117" s="126" t="s">
+        <v>178</v>
       </c>
       <c r="E117" s="121"/>
     </row>
@@ -6374,34 +6427,34 @@
         <v>177</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D118" s="126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E118" s="121"/>
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="C119" s="126" t="s">
-        <v>412</v>
-      </c>
-      <c r="D119" s="126" t="s">
-        <v>178</v>
+        <v>265</v>
+      </c>
+      <c r="C119" s="123" t="s">
+        <v>411</v>
+      </c>
+      <c r="D119" s="123">
+        <v>1</v>
       </c>
       <c r="E119" s="121"/>
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="126" t="s">
-        <v>413</v>
-      </c>
-      <c r="D120" s="126" t="s">
-        <v>179</v>
+        <v>265</v>
+      </c>
+      <c r="C120" s="123" t="s">
+        <v>412</v>
+      </c>
+      <c r="D120" s="123">
+        <v>2</v>
       </c>
       <c r="E120" s="121"/>
     </row>
@@ -6410,10 +6463,10 @@
         <v>265</v>
       </c>
       <c r="C121" s="123" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D121" s="123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E121" s="121"/>
     </row>
@@ -6422,10 +6475,10 @@
         <v>265</v>
       </c>
       <c r="C122" s="123" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D122" s="123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E122" s="121"/>
     </row>
@@ -6434,10 +6487,10 @@
         <v>265</v>
       </c>
       <c r="C123" s="123" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D123" s="123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E123" s="121"/>
     </row>
@@ -6446,10 +6499,10 @@
         <v>265</v>
       </c>
       <c r="C124" s="123" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D124" s="123">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E124" s="121"/>
     </row>
@@ -6458,10 +6511,10 @@
         <v>265</v>
       </c>
       <c r="C125" s="123" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D125" s="123">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E125" s="121"/>
     </row>
@@ -6470,10 +6523,10 @@
         <v>265</v>
       </c>
       <c r="C126" s="123" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D126" s="123">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E126" s="121"/>
     </row>
@@ -6482,10 +6535,10 @@
         <v>265</v>
       </c>
       <c r="C127" s="123" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D127" s="123">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E127" s="121"/>
     </row>
@@ -6494,163 +6547,163 @@
         <v>265</v>
       </c>
       <c r="C128" s="123" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D128" s="123">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E128" s="121"/>
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="127" t="s">
-        <v>265</v>
-      </c>
-      <c r="C129" s="123" t="s">
-        <v>422</v>
-      </c>
-      <c r="D129" s="123">
-        <v>9</v>
+        <v>421</v>
+      </c>
+      <c r="C129" s="123">
+        <v>2</v>
+      </c>
+      <c r="D129" s="132">
+        <v>2500</v>
       </c>
       <c r="E129" s="121"/>
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="127" t="s">
-        <v>265</v>
-      </c>
-      <c r="C130" s="123" t="s">
-        <v>423</v>
-      </c>
-      <c r="D130" s="123">
-        <v>10</v>
+        <v>421</v>
+      </c>
+      <c r="C130" s="123">
+        <v>3</v>
+      </c>
+      <c r="D130" s="132">
+        <v>3000</v>
       </c>
       <c r="E130" s="121"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="127" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C131" s="123">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D131" s="132">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="E131" s="121"/>
     </row>
     <row r="132" spans="2:5">
       <c r="B132" s="127" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C132" s="123">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D132" s="132">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="E132" s="121"/>
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="127" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C133" s="123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D133" s="132">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="E133" s="121"/>
     </row>
     <row r="134" spans="2:5">
       <c r="B134" s="127" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C134" s="123">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D134" s="132">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="E134" s="121"/>
     </row>
     <row r="135" spans="2:5">
       <c r="B135" s="127" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C135" s="123">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D135" s="132">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="E135" s="121"/>
     </row>
     <row r="136" spans="2:5">
       <c r="B136" s="127" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C136" s="123">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D136" s="132">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="E136" s="121"/>
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="127" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C137" s="123">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D137" s="132">
-        <v>30000</v>
+        <v>5500</v>
       </c>
       <c r="E137" s="121"/>
     </row>
     <row r="138" spans="2:5">
       <c r="B138" s="127" t="s">
-        <v>424</v>
-      </c>
-      <c r="C138" s="123">
-        <v>4</v>
-      </c>
-      <c r="D138" s="132">
-        <v>5000</v>
+        <v>422</v>
+      </c>
+      <c r="C138" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138" s="134" t="s">
+        <v>423</v>
       </c>
       <c r="E138" s="121"/>
     </row>
     <row r="139" spans="2:5">
       <c r="B139" s="127" t="s">
-        <v>424</v>
-      </c>
-      <c r="C139" s="123">
-        <v>5</v>
-      </c>
-      <c r="D139" s="132">
-        <v>5500</v>
+        <v>422</v>
+      </c>
+      <c r="C139" s="133" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" s="134" t="s">
+        <v>589</v>
       </c>
       <c r="E139" s="121"/>
     </row>
     <row r="140" spans="2:5">
       <c r="B140" s="127" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C140" s="133" t="s">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="D140" s="134" t="s">
-        <v>426</v>
+        <v>591</v>
       </c>
       <c r="E140" s="121"/>
     </row>
     <row r="141" spans="2:5">
       <c r="B141" s="127" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C141" s="133" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D141" s="134" t="s">
         <v>266</v>
@@ -6659,7 +6712,7 @@
     </row>
     <row r="142" spans="2:5">
       <c r="B142" s="127" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C142" s="133" t="s">
         <v>268</v>
@@ -6671,130 +6724,130 @@
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="127" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C143" s="123" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D143" s="123" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E143" s="121"/>
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="127" t="s">
+        <v>425</v>
+      </c>
+      <c r="C144" s="123" t="s">
         <v>428</v>
       </c>
-      <c r="C144" s="123" t="s">
-        <v>431</v>
-      </c>
       <c r="D144" s="123" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E144" s="121"/>
     </row>
     <row r="145" spans="2:5">
       <c r="B145" s="127" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C145" s="123" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D145" s="123" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E145" s="121"/>
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="127" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C146" s="135" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D146" s="123" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E146" s="121"/>
     </row>
     <row r="147" spans="2:5">
       <c r="B147" s="127" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C147" s="123" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D147" s="123" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E147" s="121"/>
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C148" s="130" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D148" s="136" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E148" s="121"/>
     </row>
     <row r="149" spans="2:5">
       <c r="B149" s="127" t="s">
+        <v>436</v>
+      </c>
+      <c r="C149" s="130" t="s">
         <v>439</v>
       </c>
-      <c r="C149" s="130" t="s">
-        <v>442</v>
-      </c>
       <c r="D149" s="136" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E149" s="121"/>
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C150" s="130" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D150" s="136" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E150" s="121"/>
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C151" s="130" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D151" s="136" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E151" s="121"/>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C152" s="130" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D152" s="137" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E152" s="121"/>
     </row>
     <row r="153" spans="2:5">
       <c r="B153" s="127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C153" s="138" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D153" s="138" t="s">
         <v>124</v>
@@ -6803,22 +6856,22 @@
     </row>
     <row r="154" spans="2:5">
       <c r="B154" s="127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C154" s="138" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D154" s="138" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E154" s="121"/>
     </row>
     <row r="155" spans="2:5">
       <c r="B155" s="127" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C155" s="130" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D155" s="130">
         <v>1</v>
@@ -6827,10 +6880,10 @@
     </row>
     <row r="156" spans="2:5">
       <c r="B156" s="127" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C156" s="130" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D156" s="130">
         <v>2</v>
@@ -6839,10 +6892,10 @@
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="127" t="s">
+        <v>450</v>
+      </c>
+      <c r="C157" s="130" t="s">
         <v>453</v>
-      </c>
-      <c r="C157" s="130" t="s">
-        <v>456</v>
       </c>
       <c r="D157" s="130">
         <v>3</v>
@@ -6851,10 +6904,10 @@
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="127" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C158" s="130" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D158" s="130">
         <v>4</v>
@@ -6863,10 +6916,10 @@
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="127" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C159" s="130" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D159" s="130">
         <v>5</v>
@@ -6875,10 +6928,10 @@
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="127" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C160" s="130" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D160" s="130">
         <v>1</v>
@@ -6887,10 +6940,10 @@
     </row>
     <row r="161" spans="2:5">
       <c r="B161" s="127" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C161" s="130" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D161" s="130">
         <v>2</v>
@@ -6899,10 +6952,10 @@
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="127" t="s">
+        <v>456</v>
+      </c>
+      <c r="C162" s="130" t="s">
         <v>459</v>
-      </c>
-      <c r="C162" s="130" t="s">
-        <v>462</v>
       </c>
       <c r="D162" s="130">
         <v>3</v>
@@ -6911,10 +6964,10 @@
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="127" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C163" s="130" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D163" s="130">
         <v>4</v>
@@ -6923,10 +6976,10 @@
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="127" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C164" s="130" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D164" s="130">
         <v>1</v>
@@ -6935,10 +6988,10 @@
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="127" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C165" s="130" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D165" s="130">
         <v>2</v>
@@ -6947,10 +7000,10 @@
     </row>
     <row r="166" spans="2:5">
       <c r="B166" s="127" t="s">
+        <v>461</v>
+      </c>
+      <c r="C166" s="130" t="s">
         <v>464</v>
-      </c>
-      <c r="C166" s="130" t="s">
-        <v>467</v>
       </c>
       <c r="D166" s="130">
         <v>3</v>
@@ -6959,10 +7012,10 @@
     </row>
     <row r="167" spans="2:5">
       <c r="B167" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C167" s="130" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D167" s="130">
         <v>1</v>
@@ -6971,10 +7024,10 @@
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C168" s="130" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D168" s="130">
         <v>2</v>
@@ -6983,10 +7036,10 @@
     </row>
     <row r="169" spans="2:5">
       <c r="B169" s="127" t="s">
+        <v>465</v>
+      </c>
+      <c r="C169" s="130" t="s">
         <v>468</v>
-      </c>
-      <c r="C169" s="130" t="s">
-        <v>471</v>
       </c>
       <c r="D169" s="130">
         <v>3</v>
@@ -6995,10 +7048,10 @@
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C170" s="130" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D170" s="130">
         <v>4</v>
@@ -7007,10 +7060,10 @@
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C171" s="130" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D171" s="130">
         <v>5</v>
@@ -7019,10 +7072,10 @@
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C172" s="130" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D172" s="130">
         <v>6</v>
@@ -7031,10 +7084,10 @@
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C173" s="130" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D173" s="130">
         <v>7</v>
@@ -7043,10 +7096,10 @@
     </row>
     <row r="174" spans="2:5">
       <c r="B174" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C174" s="130" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D174" s="130">
         <v>8</v>
@@ -7055,38 +7108,38 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="127" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C175" s="130" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D175" s="130">
         <v>1</v>
       </c>
       <c r="E175" s="139" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="2:5">
       <c r="B176" s="127" t="s">
+        <v>474</v>
+      </c>
+      <c r="C176" s="130" t="s">
         <v>477</v>
-      </c>
-      <c r="C176" s="130" t="s">
-        <v>480</v>
       </c>
       <c r="D176" s="130">
         <v>2</v>
       </c>
       <c r="E176" s="140" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="2:5">
       <c r="B177" s="127" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C177" s="130" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D177" s="130">
         <v>1</v>
@@ -7095,10 +7148,10 @@
     </row>
     <row r="178" spans="2:5">
       <c r="B178" s="127" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C178" s="130" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D178" s="130">
         <v>2</v>
@@ -7107,10 +7160,10 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="127" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C179" s="130" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D179" s="130">
         <v>1</v>
@@ -7119,10 +7172,10 @@
     </row>
     <row r="180" spans="2:5">
       <c r="B180" s="127" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C180" s="130" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D180" s="130">
         <v>2</v>
@@ -7131,10 +7184,10 @@
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="127" t="s">
+        <v>482</v>
+      </c>
+      <c r="C181" s="130" t="s">
         <v>485</v>
-      </c>
-      <c r="C181" s="130" t="s">
-        <v>488</v>
       </c>
       <c r="D181" s="130">
         <v>3</v>
@@ -7143,10 +7196,10 @@
     </row>
     <row r="182" spans="2:5">
       <c r="B182" s="127" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C182" s="130" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D182" s="130">
         <v>4</v>
@@ -7155,10 +7208,10 @@
     </row>
     <row r="183" spans="2:5">
       <c r="B183" s="127" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C183" s="130" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D183" s="130">
         <v>1</v>
@@ -7167,10 +7220,10 @@
     </row>
     <row r="184" spans="2:5">
       <c r="B184" s="127" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C184" s="130" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D184" s="130">
         <v>2</v>
@@ -7179,10 +7232,10 @@
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="127" t="s">
+        <v>487</v>
+      </c>
+      <c r="C185" s="130" t="s">
         <v>490</v>
-      </c>
-      <c r="C185" s="130" t="s">
-        <v>493</v>
       </c>
       <c r="D185" s="130">
         <v>3</v>
@@ -7191,10 +7244,10 @@
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C186" s="130" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D186" s="130">
         <v>1</v>
@@ -7203,10 +7256,10 @@
     </row>
     <row r="187" spans="2:5">
       <c r="B187" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C187" s="130" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D187" s="130">
         <v>2</v>
@@ -7215,10 +7268,10 @@
     </row>
     <row r="188" spans="2:5">
       <c r="B188" s="127" t="s">
+        <v>465</v>
+      </c>
+      <c r="C188" s="130" t="s">
         <v>468</v>
-      </c>
-      <c r="C188" s="130" t="s">
-        <v>471</v>
       </c>
       <c r="D188" s="130">
         <v>3</v>
@@ -7227,10 +7280,10 @@
     </row>
     <row r="189" spans="2:5">
       <c r="B189" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C189" s="130" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D189" s="130">
         <v>4</v>
@@ -7239,10 +7292,10 @@
     </row>
     <row r="190" spans="2:5">
       <c r="B190" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C190" s="130" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D190" s="130">
         <v>5</v>
@@ -7251,10 +7304,10 @@
     </row>
     <row r="191" spans="2:5">
       <c r="B191" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C191" s="130" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D191" s="130">
         <v>6</v>
@@ -7263,10 +7316,10 @@
     </row>
     <row r="192" spans="2:5">
       <c r="B192" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C192" s="130" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D192" s="130">
         <v>7</v>
@@ -7275,10 +7328,10 @@
     </row>
     <row r="193" spans="2:5">
       <c r="B193" s="127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C193" s="130" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D193" s="130">
         <v>8</v>
@@ -7287,66 +7340,66 @@
     </row>
     <row r="194" spans="2:5">
       <c r="B194" s="127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C194" s="130" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D194" s="130">
         <v>1</v>
       </c>
       <c r="E194" s="139" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="127" t="s">
+        <v>491</v>
+      </c>
+      <c r="C195" s="130" t="s">
         <v>494</v>
-      </c>
-      <c r="C195" s="130" t="s">
-        <v>497</v>
       </c>
       <c r="D195" s="130">
         <v>2</v>
       </c>
       <c r="E195" s="140" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C196" s="130" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D196" s="130">
         <v>3</v>
       </c>
       <c r="E196" s="140" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C197" s="130" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D197" s="130">
         <v>4</v>
       </c>
       <c r="E197" s="140" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C198" s="130" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D198" s="130">
         <v>5</v>
@@ -7355,38 +7408,38 @@
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="127" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C199" s="130" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D199" s="130">
         <v>0</v>
       </c>
       <c r="E199" s="140" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="2:5">
       <c r="B200" s="127" t="s">
+        <v>501</v>
+      </c>
+      <c r="C200" s="130" t="s">
         <v>504</v>
-      </c>
-      <c r="C200" s="130" t="s">
-        <v>507</v>
       </c>
       <c r="D200" s="130">
         <v>1</v>
       </c>
       <c r="E200" s="140" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="2:5">
       <c r="B201" s="127" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C201" s="130" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D201" s="130">
         <v>0</v>
@@ -7395,10 +7448,10 @@
     </row>
     <row r="202" spans="2:5">
       <c r="B202" s="127" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C202" s="130" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D202" s="130">
         <v>1</v>
@@ -7407,10 +7460,10 @@
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="127" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C203" s="130" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D203" s="130">
         <v>2</v>
@@ -7419,136 +7472,136 @@
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="127" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C204" s="130" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D204" s="130">
         <v>1</v>
       </c>
       <c r="E204" s="139" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="205" spans="2:5">
       <c r="B205" s="127" t="s">
+        <v>508</v>
+      </c>
+      <c r="C205" s="130" t="s">
         <v>511</v>
-      </c>
-      <c r="C205" s="130" t="s">
-        <v>514</v>
       </c>
       <c r="D205" s="130">
         <v>2</v>
       </c>
       <c r="E205" s="140" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="206" spans="2:5">
       <c r="B206" s="127" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C206" s="130" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D206" s="130">
         <v>3</v>
       </c>
       <c r="E206" s="140" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="207" spans="2:5">
       <c r="B207" s="127" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C207" s="130" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D207" s="130">
         <v>4</v>
       </c>
       <c r="E207" s="140" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="2:5">
       <c r="B208" s="127" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C208" s="130" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D208" s="130">
         <v>1</v>
       </c>
       <c r="E208" s="140" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="127" t="s">
+        <v>517</v>
+      </c>
+      <c r="C209" s="130" t="s">
         <v>520</v>
-      </c>
-      <c r="C209" s="130" t="s">
-        <v>523</v>
       </c>
       <c r="D209" s="130">
         <v>2</v>
       </c>
       <c r="E209" s="140" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="210" spans="2:5">
       <c r="B210" s="127" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C210" s="130" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D210" s="130">
         <v>3</v>
       </c>
       <c r="E210" s="140" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="127" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C211" s="130" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D211" s="130">
         <v>4</v>
       </c>
       <c r="E211" s="140" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="127" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C212" s="130" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D212" s="130">
         <v>5</v>
       </c>
       <c r="E212" s="140" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="213" spans="2:5" ht="15">
       <c r="B213" s="141" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C213" s="130" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D213" s="130">
         <v>1</v>
@@ -7557,10 +7610,10 @@
     </row>
     <row r="214" spans="2:5" ht="15">
       <c r="B214" s="141" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C214" s="130" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D214" s="130">
         <v>2</v>
@@ -7569,10 +7622,10 @@
     </row>
     <row r="215" spans="2:5" ht="15">
       <c r="B215" s="141" t="s">
+        <v>528</v>
+      </c>
+      <c r="C215" s="130" t="s">
         <v>531</v>
-      </c>
-      <c r="C215" s="130" t="s">
-        <v>534</v>
       </c>
       <c r="D215" s="130">
         <v>3</v>
@@ -7581,94 +7634,94 @@
     </row>
     <row r="216" spans="2:5">
       <c r="B216" s="127" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C216" s="130" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D216" s="130">
         <v>1</v>
       </c>
       <c r="E216" s="139" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="127" t="s">
+        <v>532</v>
+      </c>
+      <c r="C217" s="130" t="s">
         <v>535</v>
-      </c>
-      <c r="C217" s="130" t="s">
-        <v>538</v>
       </c>
       <c r="D217" s="130">
         <v>2</v>
       </c>
       <c r="E217" s="140" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="218" spans="2:5">
       <c r="B218" s="127" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C218" s="130" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D218" s="130">
         <v>3</v>
       </c>
       <c r="E218" s="140" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="127" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C219" s="130" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D219" s="130">
         <v>4</v>
       </c>
       <c r="E219" s="140" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="127" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C220" s="130" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D220" s="130">
         <v>5</v>
       </c>
       <c r="E220" s="140" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="127" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C221" s="130" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D221" s="130">
         <v>6</v>
       </c>
       <c r="E221" s="140" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="2:5">
       <c r="B222" s="127" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C222" s="130" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D222" s="130">
         <v>7</v>
@@ -7677,52 +7730,52 @@
     </row>
     <row r="223" spans="2:5">
       <c r="B223" s="127" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C223" s="130" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D223" s="130">
         <v>1</v>
       </c>
       <c r="E223" s="140" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="2:5">
       <c r="B224" s="127" t="s">
+        <v>545</v>
+      </c>
+      <c r="C224" s="130" t="s">
         <v>548</v>
-      </c>
-      <c r="C224" s="130" t="s">
-        <v>551</v>
       </c>
       <c r="D224" s="130">
         <v>2</v>
       </c>
       <c r="E224" s="140" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="225" spans="2:5">
       <c r="B225" s="127" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C225" s="130" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D225" s="130">
         <v>3</v>
       </c>
       <c r="E225" s="140" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="226" spans="2:5">
       <c r="B226" s="127" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C226" s="130" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D226" s="130">
         <v>1</v>
@@ -7731,10 +7784,10 @@
     </row>
     <row r="227" spans="2:5">
       <c r="B227" s="127" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C227" s="130" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D227" s="130">
         <v>2</v>
@@ -7743,10 +7796,10 @@
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="127" t="s">
+        <v>552</v>
+      </c>
+      <c r="C228" s="130" t="s">
         <v>555</v>
-      </c>
-      <c r="C228" s="130" t="s">
-        <v>558</v>
       </c>
       <c r="D228" s="130">
         <v>3</v>
@@ -7755,10 +7808,10 @@
     </row>
     <row r="229" spans="2:5">
       <c r="B229" s="127" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C229" s="130" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D229" s="130">
         <v>1</v>
@@ -7767,10 +7820,10 @@
     </row>
     <row r="230" spans="2:5">
       <c r="B230" s="127" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C230" s="130" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D230" s="130">
         <v>2</v>
@@ -7779,10 +7832,10 @@
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="127" t="s">
+        <v>556</v>
+      </c>
+      <c r="C231" s="130" t="s">
         <v>559</v>
-      </c>
-      <c r="C231" s="130" t="s">
-        <v>562</v>
       </c>
       <c r="D231" s="130">
         <v>3</v>
@@ -7791,10 +7844,10 @@
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="127" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C232" s="130" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D232" s="130">
         <v>4</v>
@@ -7803,38 +7856,38 @@
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="127" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C233" s="130" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D233" s="130">
         <v>1</v>
       </c>
       <c r="E233" s="139" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="127" t="s">
+        <v>561</v>
+      </c>
+      <c r="C234" s="130" t="s">
         <v>564</v>
-      </c>
-      <c r="C234" s="130" t="s">
-        <v>567</v>
       </c>
       <c r="D234" s="130">
         <v>2</v>
       </c>
       <c r="E234" s="140" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="127" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C235" s="130" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D235" s="130">
         <v>1</v>
@@ -7843,10 +7896,10 @@
     </row>
     <row r="236" spans="2:5">
       <c r="B236" s="127" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C236" s="130" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D236" s="130">
         <v>2</v>
@@ -7855,10 +7908,10 @@
     </row>
     <row r="237" spans="2:5">
       <c r="B237" s="127" t="s">
+        <v>566</v>
+      </c>
+      <c r="C237" s="130" t="s">
         <v>569</v>
-      </c>
-      <c r="C237" s="130" t="s">
-        <v>572</v>
       </c>
       <c r="D237" s="130">
         <v>3</v>
@@ -7867,10 +7920,10 @@
     </row>
     <row r="238" spans="2:5">
       <c r="B238" s="127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C238" s="130" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D238" s="130">
         <v>0</v>
@@ -7879,10 +7932,10 @@
     </row>
     <row r="239" spans="2:5">
       <c r="B239" s="127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C239" s="130" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D239" s="130">
         <v>1</v>
@@ -7891,10 +7944,10 @@
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="127" t="s">
+        <v>570</v>
+      </c>
+      <c r="C240" s="130" t="s">
         <v>573</v>
-      </c>
-      <c r="C240" s="130" t="s">
-        <v>576</v>
       </c>
       <c r="D240" s="130">
         <v>2</v>
@@ -7903,10 +7956,10 @@
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C241" s="130" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D241" s="130">
         <v>3</v>
@@ -7915,10 +7968,10 @@
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C242" s="130" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D242" s="130">
         <v>4</v>
@@ -7927,10 +7980,10 @@
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C243" s="130" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D243" s="130">
         <v>5</v>
@@ -7939,10 +7992,10 @@
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C244" s="130" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D244" s="130">
         <v>6</v>
@@ -7951,10 +8004,10 @@
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C245" s="130" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D245" s="130">
         <v>7</v>
@@ -7963,10 +8016,10 @@
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C246" s="130" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D246" s="130">
         <v>8</v>
@@ -7975,10 +8028,10 @@
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="127" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C247" s="130" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D247" s="130">
         <v>1</v>
@@ -7987,10 +8040,10 @@
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="127" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C248" s="130" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D248" s="130">
         <v>2</v>
@@ -7999,10 +8052,10 @@
     </row>
     <row r="249" spans="2:5">
       <c r="B249" s="127" t="s">
+        <v>580</v>
+      </c>
+      <c r="C249" s="130" t="s">
         <v>583</v>
-      </c>
-      <c r="C249" s="130" t="s">
-        <v>586</v>
       </c>
       <c r="D249" s="130">
         <v>3</v>
@@ -8011,10 +8064,10 @@
     </row>
     <row r="250" spans="2:5">
       <c r="B250" s="127" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C250" s="142" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D250" s="142">
         <v>4</v>
@@ -8023,10 +8076,10 @@
     </row>
     <row r="251" spans="2:5" ht="15" thickBot="1">
       <c r="B251" s="127" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C251" s="142" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D251" s="142">
         <v>5</v>
@@ -8035,10 +8088,10 @@
     </row>
     <row r="252" spans="2:5" ht="16" thickBot="1">
       <c r="B252" s="143" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C252" s="144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D252" s="145">
         <v>1</v>
@@ -8047,10 +8100,10 @@
     </row>
     <row r="253" spans="2:5" ht="16" thickBot="1">
       <c r="B253" s="146" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C253" s="147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D253" s="145">
         <v>10</v>
@@ -8059,10 +8112,10 @@
     </row>
     <row r="254" spans="2:5" ht="16" thickBot="1">
       <c r="B254" s="146" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C254" s="144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D254" s="145">
         <v>20</v>
@@ -8071,10 +8124,10 @@
     </row>
     <row r="255" spans="2:5" ht="16" thickBot="1">
       <c r="B255" s="146" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C255" s="147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D255" s="145">
         <v>30</v>
@@ -8083,10 +8136,10 @@
     </row>
     <row r="256" spans="2:5" ht="16" thickBot="1">
       <c r="B256" s="146" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C256" s="147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D256" s="148">
         <v>40</v>
@@ -8095,10 +8148,10 @@
     </row>
     <row r="257" spans="2:5" ht="16" thickBot="1">
       <c r="B257" s="146" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C257" s="149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D257" s="150">
         <v>50</v>

--- a/dealer-1/src/qiansh/CAF Fields.xlsx
+++ b/dealer-1/src/qiansh/CAF Fields.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="593">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1368,9 +1368,6 @@
   </si>
   <si>
     <t>SERVICETYPE</t>
-  </si>
-  <si>
-    <t>Z0002</t>
   </si>
   <si>
     <t>LTE-Voice</t>
@@ -1888,6 +1885,13 @@
   <si>
     <t>Z0021</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTE-Residential</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z0001</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2083,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2182,8 +2186,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2348,6 +2358,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2437,7 +2477,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2806,6 +2846,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -5008,7 +5054,7 @@
   <dimension ref="B1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5032,7 +5078,7 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="122" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C2" s="123" t="s">
         <v>94</v>
@@ -6340,7 +6386,7 @@
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="127" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C111" s="123" t="s">
         <v>275</v>
@@ -6650,7 +6696,7 @@
       </c>
       <c r="E136" s="121"/>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:5" ht="15" thickBot="1">
       <c r="B137" s="127" t="s">
         <v>421</v>
       </c>
@@ -6666,11 +6712,11 @@
       <c r="B138" s="127" t="s">
         <v>422</v>
       </c>
-      <c r="C138" s="133" t="s">
-        <v>101</v>
-      </c>
-      <c r="D138" s="134" t="s">
-        <v>423</v>
+      <c r="C138" s="151" t="s">
+        <v>591</v>
+      </c>
+      <c r="D138" s="152" t="s">
+        <v>592</v>
       </c>
       <c r="E138" s="121"/>
     </row>
@@ -6682,7 +6728,7 @@
         <v>103</v>
       </c>
       <c r="D139" s="134" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E139" s="121"/>
     </row>
@@ -6691,10 +6737,10 @@
         <v>422</v>
       </c>
       <c r="C140" s="133" t="s">
+        <v>589</v>
+      </c>
+      <c r="D140" s="134" t="s">
         <v>590</v>
-      </c>
-      <c r="D140" s="134" t="s">
-        <v>591</v>
       </c>
       <c r="E140" s="121"/>
     </row>
@@ -6703,7 +6749,7 @@
         <v>422</v>
       </c>
       <c r="C141" s="133" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D141" s="134" t="s">
         <v>266</v>
@@ -6724,130 +6770,130 @@
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="127" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" s="123" t="s">
         <v>425</v>
       </c>
-      <c r="C143" s="123" t="s">
+      <c r="D143" s="123" t="s">
         <v>426</v>
-      </c>
-      <c r="D143" s="123" t="s">
-        <v>427</v>
       </c>
       <c r="E143" s="121"/>
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="127" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C144" s="123" t="s">
+        <v>427</v>
+      </c>
+      <c r="D144" s="123" t="s">
         <v>428</v>
-      </c>
-      <c r="D144" s="123" t="s">
-        <v>429</v>
       </c>
       <c r="E144" s="121"/>
     </row>
     <row r="145" spans="2:5">
       <c r="B145" s="127" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C145" s="123" t="s">
+        <v>429</v>
+      </c>
+      <c r="D145" s="123" t="s">
         <v>430</v>
-      </c>
-      <c r="D145" s="123" t="s">
-        <v>431</v>
       </c>
       <c r="E145" s="121"/>
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="127" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C146" s="135" t="s">
+        <v>431</v>
+      </c>
+      <c r="D146" s="123" t="s">
         <v>432</v>
-      </c>
-      <c r="D146" s="123" t="s">
-        <v>433</v>
       </c>
       <c r="E146" s="121"/>
     </row>
     <row r="147" spans="2:5">
       <c r="B147" s="127" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C147" s="123" t="s">
+        <v>433</v>
+      </c>
+      <c r="D147" s="123" t="s">
         <v>434</v>
-      </c>
-      <c r="D147" s="123" t="s">
-        <v>435</v>
       </c>
       <c r="E147" s="121"/>
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="127" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" s="130" t="s">
         <v>436</v>
       </c>
-      <c r="C148" s="130" t="s">
+      <c r="D148" s="136" t="s">
         <v>437</v>
-      </c>
-      <c r="D148" s="136" t="s">
-        <v>438</v>
       </c>
       <c r="E148" s="121"/>
     </row>
     <row r="149" spans="2:5">
       <c r="B149" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C149" s="130" t="s">
+        <v>438</v>
+      </c>
+      <c r="D149" s="136" t="s">
         <v>439</v>
-      </c>
-      <c r="D149" s="136" t="s">
-        <v>440</v>
       </c>
       <c r="E149" s="121"/>
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C150" s="130" t="s">
+        <v>440</v>
+      </c>
+      <c r="D150" s="136" t="s">
         <v>441</v>
-      </c>
-      <c r="D150" s="136" t="s">
-        <v>442</v>
       </c>
       <c r="E150" s="121"/>
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C151" s="130" t="s">
+        <v>442</v>
+      </c>
+      <c r="D151" s="136" t="s">
         <v>443</v>
-      </c>
-      <c r="D151" s="136" t="s">
-        <v>444</v>
       </c>
       <c r="E151" s="121"/>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C152" s="130" t="s">
+        <v>444</v>
+      </c>
+      <c r="D152" s="137" t="s">
         <v>445</v>
-      </c>
-      <c r="D152" s="137" t="s">
-        <v>446</v>
       </c>
       <c r="E152" s="121"/>
     </row>
     <row r="153" spans="2:5">
       <c r="B153" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C153" s="138" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D153" s="138" t="s">
         <v>124</v>
@@ -6856,22 +6902,22 @@
     </row>
     <row r="154" spans="2:5">
       <c r="B154" s="127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C154" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="D154" s="138" t="s">
         <v>448</v>
-      </c>
-      <c r="D154" s="138" t="s">
-        <v>449</v>
       </c>
       <c r="E154" s="121"/>
     </row>
     <row r="155" spans="2:5">
       <c r="B155" s="127" t="s">
+        <v>449</v>
+      </c>
+      <c r="C155" s="130" t="s">
         <v>450</v>
-      </c>
-      <c r="C155" s="130" t="s">
-        <v>451</v>
       </c>
       <c r="D155" s="130">
         <v>1</v>
@@ -6880,10 +6926,10 @@
     </row>
     <row r="156" spans="2:5">
       <c r="B156" s="127" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C156" s="130" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D156" s="130">
         <v>2</v>
@@ -6892,10 +6938,10 @@
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="127" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C157" s="130" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D157" s="130">
         <v>3</v>
@@ -6904,10 +6950,10 @@
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="127" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C158" s="130" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D158" s="130">
         <v>4</v>
@@ -6916,10 +6962,10 @@
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="127" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C159" s="130" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D159" s="130">
         <v>5</v>
@@ -6928,10 +6974,10 @@
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="127" t="s">
+        <v>455</v>
+      </c>
+      <c r="C160" s="130" t="s">
         <v>456</v>
-      </c>
-      <c r="C160" s="130" t="s">
-        <v>457</v>
       </c>
       <c r="D160" s="130">
         <v>1</v>
@@ -6940,10 +6986,10 @@
     </row>
     <row r="161" spans="2:5">
       <c r="B161" s="127" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C161" s="130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D161" s="130">
         <v>2</v>
@@ -6952,10 +6998,10 @@
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="127" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C162" s="130" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D162" s="130">
         <v>3</v>
@@ -6964,10 +7010,10 @@
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="127" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C163" s="130" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D163" s="130">
         <v>4</v>
@@ -6976,10 +7022,10 @@
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="127" t="s">
+        <v>460</v>
+      </c>
+      <c r="C164" s="130" t="s">
         <v>461</v>
-      </c>
-      <c r="C164" s="130" t="s">
-        <v>462</v>
       </c>
       <c r="D164" s="130">
         <v>1</v>
@@ -6988,10 +7034,10 @@
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C165" s="130" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D165" s="130">
         <v>2</v>
@@ -7000,10 +7046,10 @@
     </row>
     <row r="166" spans="2:5">
       <c r="B166" s="127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C166" s="130" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D166" s="130">
         <v>3</v>
@@ -7012,10 +7058,10 @@
     </row>
     <row r="167" spans="2:5">
       <c r="B167" s="127" t="s">
+        <v>464</v>
+      </c>
+      <c r="C167" s="130" t="s">
         <v>465</v>
-      </c>
-      <c r="C167" s="130" t="s">
-        <v>466</v>
       </c>
       <c r="D167" s="130">
         <v>1</v>
@@ -7024,10 +7070,10 @@
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C168" s="130" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D168" s="130">
         <v>2</v>
@@ -7036,10 +7082,10 @@
     </row>
     <row r="169" spans="2:5">
       <c r="B169" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C169" s="130" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D169" s="130">
         <v>3</v>
@@ -7048,10 +7094,10 @@
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C170" s="130" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D170" s="130">
         <v>4</v>
@@ -7060,10 +7106,10 @@
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C171" s="130" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D171" s="130">
         <v>5</v>
@@ -7072,10 +7118,10 @@
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C172" s="130" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D172" s="130">
         <v>6</v>
@@ -7084,10 +7130,10 @@
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C173" s="130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D173" s="130">
         <v>7</v>
@@ -7096,10 +7142,10 @@
     </row>
     <row r="174" spans="2:5">
       <c r="B174" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C174" s="130" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D174" s="130">
         <v>8</v>
@@ -7108,38 +7154,38 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="127" t="s">
+        <v>473</v>
+      </c>
+      <c r="C175" s="130" t="s">
         <v>474</v>
-      </c>
-      <c r="C175" s="130" t="s">
-        <v>475</v>
       </c>
       <c r="D175" s="130">
         <v>1</v>
       </c>
       <c r="E175" s="139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="2:5">
       <c r="B176" s="127" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C176" s="130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D176" s="130">
         <v>2</v>
       </c>
       <c r="E176" s="140" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="2:5">
       <c r="B177" s="127" t="s">
+        <v>478</v>
+      </c>
+      <c r="C177" s="130" t="s">
         <v>479</v>
-      </c>
-      <c r="C177" s="130" t="s">
-        <v>480</v>
       </c>
       <c r="D177" s="130">
         <v>1</v>
@@ -7148,10 +7194,10 @@
     </row>
     <row r="178" spans="2:5">
       <c r="B178" s="127" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C178" s="130" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D178" s="130">
         <v>2</v>
@@ -7160,10 +7206,10 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="127" t="s">
+        <v>481</v>
+      </c>
+      <c r="C179" s="130" t="s">
         <v>482</v>
-      </c>
-      <c r="C179" s="130" t="s">
-        <v>483</v>
       </c>
       <c r="D179" s="130">
         <v>1</v>
@@ -7172,10 +7218,10 @@
     </row>
     <row r="180" spans="2:5">
       <c r="B180" s="127" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C180" s="130" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D180" s="130">
         <v>2</v>
@@ -7184,10 +7230,10 @@
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="127" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C181" s="130" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D181" s="130">
         <v>3</v>
@@ -7196,10 +7242,10 @@
     </row>
     <row r="182" spans="2:5">
       <c r="B182" s="127" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C182" s="130" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D182" s="130">
         <v>4</v>
@@ -7208,10 +7254,10 @@
     </row>
     <row r="183" spans="2:5">
       <c r="B183" s="127" t="s">
+        <v>486</v>
+      </c>
+      <c r="C183" s="130" t="s">
         <v>487</v>
-      </c>
-      <c r="C183" s="130" t="s">
-        <v>488</v>
       </c>
       <c r="D183" s="130">
         <v>1</v>
@@ -7220,10 +7266,10 @@
     </row>
     <row r="184" spans="2:5">
       <c r="B184" s="127" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C184" s="130" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D184" s="130">
         <v>2</v>
@@ -7232,10 +7278,10 @@
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="127" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C185" s="130" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D185" s="130">
         <v>3</v>
@@ -7244,10 +7290,10 @@
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="127" t="s">
+        <v>464</v>
+      </c>
+      <c r="C186" s="130" t="s">
         <v>465</v>
-      </c>
-      <c r="C186" s="130" t="s">
-        <v>466</v>
       </c>
       <c r="D186" s="130">
         <v>1</v>
@@ -7256,10 +7302,10 @@
     </row>
     <row r="187" spans="2:5">
       <c r="B187" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C187" s="130" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D187" s="130">
         <v>2</v>
@@ -7268,10 +7314,10 @@
     </row>
     <row r="188" spans="2:5">
       <c r="B188" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C188" s="130" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D188" s="130">
         <v>3</v>
@@ -7280,10 +7326,10 @@
     </row>
     <row r="189" spans="2:5">
       <c r="B189" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C189" s="130" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D189" s="130">
         <v>4</v>
@@ -7292,10 +7338,10 @@
     </row>
     <row r="190" spans="2:5">
       <c r="B190" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C190" s="130" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D190" s="130">
         <v>5</v>
@@ -7304,10 +7350,10 @@
     </row>
     <row r="191" spans="2:5">
       <c r="B191" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C191" s="130" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D191" s="130">
         <v>6</v>
@@ -7316,10 +7362,10 @@
     </row>
     <row r="192" spans="2:5">
       <c r="B192" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C192" s="130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D192" s="130">
         <v>7</v>
@@ -7328,10 +7374,10 @@
     </row>
     <row r="193" spans="2:5">
       <c r="B193" s="127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C193" s="130" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D193" s="130">
         <v>8</v>
@@ -7340,66 +7386,66 @@
     </row>
     <row r="194" spans="2:5">
       <c r="B194" s="127" t="s">
+        <v>490</v>
+      </c>
+      <c r="C194" s="130" t="s">
         <v>491</v>
-      </c>
-      <c r="C194" s="130" t="s">
-        <v>492</v>
       </c>
       <c r="D194" s="130">
         <v>1</v>
       </c>
       <c r="E194" s="139" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="127" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C195" s="130" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D195" s="130">
         <v>2</v>
       </c>
       <c r="E195" s="140" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="127" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C196" s="130" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D196" s="130">
         <v>3</v>
       </c>
       <c r="E196" s="140" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="127" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C197" s="130" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D197" s="130">
         <v>4</v>
       </c>
       <c r="E197" s="140" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="127" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C198" s="130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D198" s="130">
         <v>5</v>
@@ -7408,38 +7454,38 @@
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="127" t="s">
+        <v>500</v>
+      </c>
+      <c r="C199" s="130" t="s">
         <v>501</v>
-      </c>
-      <c r="C199" s="130" t="s">
-        <v>502</v>
       </c>
       <c r="D199" s="130">
         <v>0</v>
       </c>
       <c r="E199" s="140" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="2:5">
       <c r="B200" s="127" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C200" s="130" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D200" s="130">
         <v>1</v>
       </c>
       <c r="E200" s="140" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="2:5">
       <c r="B201" s="127" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C201" s="130" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D201" s="130">
         <v>0</v>
@@ -7448,10 +7494,10 @@
     </row>
     <row r="202" spans="2:5">
       <c r="B202" s="127" t="s">
+        <v>505</v>
+      </c>
+      <c r="C202" s="130" t="s">
         <v>506</v>
-      </c>
-      <c r="C202" s="130" t="s">
-        <v>507</v>
       </c>
       <c r="D202" s="130">
         <v>1</v>
@@ -7460,10 +7506,10 @@
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="127" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C203" s="130" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D203" s="130">
         <v>2</v>
@@ -7472,136 +7518,136 @@
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="C204" s="130" t="s">
         <v>508</v>
-      </c>
-      <c r="C204" s="130" t="s">
-        <v>509</v>
       </c>
       <c r="D204" s="130">
         <v>1</v>
       </c>
       <c r="E204" s="139" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205" spans="2:5">
       <c r="B205" s="127" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C205" s="130" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D205" s="130">
         <v>2</v>
       </c>
       <c r="E205" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="206" spans="2:5">
       <c r="B206" s="127" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C206" s="130" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D206" s="130">
         <v>3</v>
       </c>
       <c r="E206" s="140" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="207" spans="2:5">
       <c r="B207" s="127" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C207" s="130" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D207" s="130">
         <v>4</v>
       </c>
       <c r="E207" s="140" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="208" spans="2:5">
       <c r="B208" s="127" t="s">
+        <v>516</v>
+      </c>
+      <c r="C208" s="130" t="s">
         <v>517</v>
-      </c>
-      <c r="C208" s="130" t="s">
-        <v>518</v>
       </c>
       <c r="D208" s="130">
         <v>1</v>
       </c>
       <c r="E208" s="140" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="127" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C209" s="130" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D209" s="130">
         <v>2</v>
       </c>
       <c r="E209" s="140" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="210" spans="2:5">
       <c r="B210" s="127" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C210" s="130" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D210" s="130">
         <v>3</v>
       </c>
       <c r="E210" s="140" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="127" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C211" s="130" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D211" s="130">
         <v>4</v>
       </c>
       <c r="E211" s="140" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="127" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C212" s="130" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D212" s="130">
         <v>5</v>
       </c>
       <c r="E212" s="140" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="213" spans="2:5" ht="15">
       <c r="B213" s="141" t="s">
+        <v>527</v>
+      </c>
+      <c r="C213" s="130" t="s">
         <v>528</v>
-      </c>
-      <c r="C213" s="130" t="s">
-        <v>529</v>
       </c>
       <c r="D213" s="130">
         <v>1</v>
@@ -7610,10 +7656,10 @@
     </row>
     <row r="214" spans="2:5" ht="15">
       <c r="B214" s="141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C214" s="130" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D214" s="130">
         <v>2</v>
@@ -7622,10 +7668,10 @@
     </row>
     <row r="215" spans="2:5" ht="15">
       <c r="B215" s="141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C215" s="130" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D215" s="130">
         <v>3</v>
@@ -7634,94 +7680,94 @@
     </row>
     <row r="216" spans="2:5">
       <c r="B216" s="127" t="s">
+        <v>531</v>
+      </c>
+      <c r="C216" s="130" t="s">
         <v>532</v>
-      </c>
-      <c r="C216" s="130" t="s">
-        <v>533</v>
       </c>
       <c r="D216" s="130">
         <v>1</v>
       </c>
       <c r="E216" s="139" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="127" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C217" s="130" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D217" s="130">
         <v>2</v>
       </c>
       <c r="E217" s="140" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="218" spans="2:5">
       <c r="B218" s="127" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C218" s="130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D218" s="130">
         <v>3</v>
       </c>
       <c r="E218" s="140" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="127" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C219" s="130" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D219" s="130">
         <v>4</v>
       </c>
       <c r="E219" s="140" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="127" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C220" s="130" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D220" s="130">
         <v>5</v>
       </c>
       <c r="E220" s="140" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="127" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C221" s="130" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D221" s="130">
         <v>6</v>
       </c>
       <c r="E221" s="140" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="222" spans="2:5">
       <c r="B222" s="127" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C222" s="130" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D222" s="130">
         <v>7</v>
@@ -7730,52 +7776,52 @@
     </row>
     <row r="223" spans="2:5">
       <c r="B223" s="127" t="s">
+        <v>544</v>
+      </c>
+      <c r="C223" s="130" t="s">
         <v>545</v>
-      </c>
-      <c r="C223" s="130" t="s">
-        <v>546</v>
       </c>
       <c r="D223" s="130">
         <v>1</v>
       </c>
       <c r="E223" s="140" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="224" spans="2:5">
       <c r="B224" s="127" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C224" s="130" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D224" s="130">
         <v>2</v>
       </c>
       <c r="E224" s="140" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="225" spans="2:5">
       <c r="B225" s="127" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C225" s="130" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D225" s="130">
         <v>3</v>
       </c>
       <c r="E225" s="140" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="226" spans="2:5">
       <c r="B226" s="127" t="s">
+        <v>551</v>
+      </c>
+      <c r="C226" s="130" t="s">
         <v>552</v>
-      </c>
-      <c r="C226" s="130" t="s">
-        <v>553</v>
       </c>
       <c r="D226" s="130">
         <v>1</v>
@@ -7784,10 +7830,10 @@
     </row>
     <row r="227" spans="2:5">
       <c r="B227" s="127" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C227" s="130" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D227" s="130">
         <v>2</v>
@@ -7796,10 +7842,10 @@
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="127" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C228" s="130" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D228" s="130">
         <v>3</v>
@@ -7808,10 +7854,10 @@
     </row>
     <row r="229" spans="2:5">
       <c r="B229" s="127" t="s">
+        <v>555</v>
+      </c>
+      <c r="C229" s="130" t="s">
         <v>556</v>
-      </c>
-      <c r="C229" s="130" t="s">
-        <v>557</v>
       </c>
       <c r="D229" s="130">
         <v>1</v>
@@ -7820,10 +7866,10 @@
     </row>
     <row r="230" spans="2:5">
       <c r="B230" s="127" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C230" s="130" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D230" s="130">
         <v>2</v>
@@ -7832,10 +7878,10 @@
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="127" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C231" s="130" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D231" s="130">
         <v>3</v>
@@ -7844,10 +7890,10 @@
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="127" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C232" s="130" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D232" s="130">
         <v>4</v>
@@ -7856,38 +7902,38 @@
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="127" t="s">
+        <v>560</v>
+      </c>
+      <c r="C233" s="130" t="s">
         <v>561</v>
-      </c>
-      <c r="C233" s="130" t="s">
-        <v>562</v>
       </c>
       <c r="D233" s="130">
         <v>1</v>
       </c>
       <c r="E233" s="139" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C234" s="130" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D234" s="130">
         <v>2</v>
       </c>
       <c r="E234" s="140" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="127" t="s">
+        <v>565</v>
+      </c>
+      <c r="C235" s="130" t="s">
         <v>566</v>
-      </c>
-      <c r="C235" s="130" t="s">
-        <v>567</v>
       </c>
       <c r="D235" s="130">
         <v>1</v>
@@ -7896,10 +7942,10 @@
     </row>
     <row r="236" spans="2:5">
       <c r="B236" s="127" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C236" s="130" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D236" s="130">
         <v>2</v>
@@ -7908,10 +7954,10 @@
     </row>
     <row r="237" spans="2:5">
       <c r="B237" s="127" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C237" s="130" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D237" s="130">
         <v>3</v>
@@ -7920,10 +7966,10 @@
     </row>
     <row r="238" spans="2:5">
       <c r="B238" s="127" t="s">
+        <v>569</v>
+      </c>
+      <c r="C238" s="130" t="s">
         <v>570</v>
-      </c>
-      <c r="C238" s="130" t="s">
-        <v>571</v>
       </c>
       <c r="D238" s="130">
         <v>0</v>
@@ -7932,10 +7978,10 @@
     </row>
     <row r="239" spans="2:5">
       <c r="B239" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C239" s="130" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D239" s="130">
         <v>1</v>
@@ -7944,10 +7990,10 @@
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C240" s="130" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D240" s="130">
         <v>2</v>
@@ -7956,10 +8002,10 @@
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C241" s="130" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D241" s="130">
         <v>3</v>
@@ -7968,10 +8014,10 @@
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C242" s="130" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D242" s="130">
         <v>4</v>
@@ -7980,10 +8026,10 @@
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C243" s="130" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D243" s="130">
         <v>5</v>
@@ -7992,10 +8038,10 @@
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C244" s="130" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D244" s="130">
         <v>6</v>
@@ -8004,10 +8050,10 @@
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C245" s="130" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D245" s="130">
         <v>7</v>
@@ -8016,10 +8062,10 @@
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="127" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C246" s="130" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D246" s="130">
         <v>8</v>
@@ -8028,10 +8074,10 @@
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="127" t="s">
+        <v>579</v>
+      </c>
+      <c r="C247" s="130" t="s">
         <v>580</v>
-      </c>
-      <c r="C247" s="130" t="s">
-        <v>581</v>
       </c>
       <c r="D247" s="130">
         <v>1</v>
@@ -8040,10 +8086,10 @@
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="127" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C248" s="130" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D248" s="130">
         <v>2</v>
@@ -8052,10 +8098,10 @@
     </row>
     <row r="249" spans="2:5">
       <c r="B249" s="127" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C249" s="130" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D249" s="130">
         <v>3</v>
@@ -8064,10 +8110,10 @@
     </row>
     <row r="250" spans="2:5">
       <c r="B250" s="127" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C250" s="142" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D250" s="142">
         <v>4</v>
@@ -8076,10 +8122,10 @@
     </row>
     <row r="251" spans="2:5" ht="15" thickBot="1">
       <c r="B251" s="127" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C251" s="142" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D251" s="142">
         <v>5</v>
@@ -8088,7 +8134,7 @@
     </row>
     <row r="252" spans="2:5" ht="16" thickBot="1">
       <c r="B252" s="143" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C252" s="144" t="s">
         <v>277</v>
@@ -8100,7 +8146,7 @@
     </row>
     <row r="253" spans="2:5" ht="16" thickBot="1">
       <c r="B253" s="146" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C253" s="147" t="s">
         <v>278</v>
@@ -8112,7 +8158,7 @@
     </row>
     <row r="254" spans="2:5" ht="16" thickBot="1">
       <c r="B254" s="146" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C254" s="144" t="s">
         <v>279</v>
@@ -8124,7 +8170,7 @@
     </row>
     <row r="255" spans="2:5" ht="16" thickBot="1">
       <c r="B255" s="146" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C255" s="147" t="s">
         <v>280</v>
@@ -8136,7 +8182,7 @@
     </row>
     <row r="256" spans="2:5" ht="16" thickBot="1">
       <c r="B256" s="146" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C256" s="147" t="s">
         <v>281</v>
@@ -8148,7 +8194,7 @@
     </row>
     <row r="257" spans="2:5" ht="16" thickBot="1">
       <c r="B257" s="146" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C257" s="149" t="s">
         <v>282</v>
